--- a/Projects/Data-Sources/statics.xlsx
+++ b/Projects/Data-Sources/statics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2014-2015-2" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="51">
   <si>
     <t>الفصل والسنة</t>
   </si>
@@ -183,10 +183,16 @@
     <t>2015/2016</t>
   </si>
   <si>
-    <t>2014/105</t>
+    <t>2016/2017</t>
   </si>
   <si>
-    <t>2016/2017</t>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
@@ -388,13 +394,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,7 +444,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s7169"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000011C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0000-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -483,7 +489,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s7170"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000021C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0000-0000021C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,7 +534,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s7171"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000031C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0000-0000031C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +579,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s7172"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000041C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0000-0000041C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -827,7 +833,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s10241"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000001280000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0900-000001280000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +878,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s10242"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002280000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0900-000002280000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +923,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s10243"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003280000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0900-000003280000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +968,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s10244"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004280000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0900-000004280000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,7 +1018,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s11265"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-0000012C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0A00-0000012C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1057,7 +1063,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s11266"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-0000022C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0A00-0000022C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1108,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s11267"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-0000032C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0A00-0000032C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,7 +1153,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s11268"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-0000042C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0A00-0000042C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1203,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1025"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1248,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1026"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1293,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1027"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1338,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1028"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0100-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1388,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2049"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0200-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1433,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2050"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0200-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1478,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2051"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0200-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1523,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2052"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0200-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1573,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s3073"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000010C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0300-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1618,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s3074"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000020C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0300-0000020C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1663,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s3075"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000030C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0300-0000030C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1708,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s3076"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000040C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0300-0000040C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1758,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s4097"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000001100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0400-000001100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1803,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s4098"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0400-000002100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1848,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s4099"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0400-000003100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1893,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s4100"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004100000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0400-000004100000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1943,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s5121"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001140000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0500-000001140000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1988,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s5122"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002140000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0500-000002140000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2033,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s5123"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003140000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0500-000003140000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2078,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s5124"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004140000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0500-000004140000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2128,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s6145"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000001180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0600-000001180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2173,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s6146"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0600-000002180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2218,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s6147"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0600-000003180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2263,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s6148"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0600-000004180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2313,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s8193"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000001200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0700-000001200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2358,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s8194"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0700-000002200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2403,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s8195"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000003200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0700-000003200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2448,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s8196"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000004200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0700-000004200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2498,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9217"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000001240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0800-000001240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2543,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9218"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0800-000002240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2588,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9219"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000003240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0800-000003240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2633,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s9220"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000004240000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="{00000000-0008-0000-0800-000004240000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,10 +2958,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O64" sqref="O64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2968,7 +2974,7 @@
     <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2985,12 +2991,12 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="42" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -3018,36 +3024,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
@@ -3060,7 +3066,7 @@
       <c r="G7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
@@ -3080,10 +3086,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
@@ -3096,7 +3102,7 @@
       <c r="G8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="9" t="s">
         <v>33</v>
       </c>
@@ -3115,11 +3121,14 @@
       <c r="N8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="20" t="s">
         <v>21</v>
       </c>
@@ -3132,7 +3141,7 @@
       <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
@@ -3151,8 +3160,11 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -3195,8 +3207,11 @@
       <c r="N10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -3239,8 +3254,11 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>3</v>
       </c>
@@ -3283,8 +3301,11 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>4</v>
       </c>
@@ -3327,8 +3348,11 @@
       <c r="N13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>5</v>
       </c>
@@ -3371,8 +3395,11 @@
       <c r="N14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>6</v>
       </c>
@@ -3415,8 +3442,11 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>7</v>
       </c>
@@ -3459,8 +3489,11 @@
       <c r="N16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>8</v>
       </c>
@@ -3503,8 +3536,11 @@
       <c r="N17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>9</v>
       </c>
@@ -3547,8 +3583,11 @@
       <c r="N18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>10</v>
       </c>
@@ -3591,8 +3630,11 @@
       <c r="N19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>11</v>
       </c>
@@ -3635,8 +3677,11 @@
       <c r="N20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>12</v>
       </c>
@@ -3679,8 +3724,11 @@
       <c r="N21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>13</v>
       </c>
@@ -3723,8 +3771,11 @@
       <c r="N22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>14</v>
       </c>
@@ -3767,8 +3818,11 @@
       <c r="N23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>15</v>
       </c>
@@ -3811,8 +3865,11 @@
       <c r="N24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>16</v>
       </c>
@@ -3855,8 +3912,11 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>17</v>
       </c>
@@ -3899,8 +3959,11 @@
       <c r="N26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>18</v>
       </c>
@@ -3943,8 +4006,11 @@
       <c r="N27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>19</v>
       </c>
@@ -3987,8 +4053,11 @@
       <c r="N28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>20</v>
       </c>
@@ -4031,8 +4100,11 @@
       <c r="N29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>21</v>
       </c>
@@ -4075,8 +4147,11 @@
       <c r="N30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>22</v>
       </c>
@@ -4119,8 +4194,11 @@
       <c r="N31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>23</v>
       </c>
@@ -4163,8 +4241,11 @@
       <c r="N32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>24</v>
       </c>
@@ -4207,8 +4288,11 @@
       <c r="N33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>25</v>
       </c>
@@ -4251,8 +4335,11 @@
       <c r="N34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>26</v>
       </c>
@@ -4295,8 +4382,11 @@
       <c r="N35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>27</v>
       </c>
@@ -4339,8 +4429,11 @@
       <c r="N36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>28</v>
       </c>
@@ -4383,8 +4476,11 @@
       <c r="N37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>29</v>
       </c>
@@ -4427,8 +4523,11 @@
       <c r="N38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>30</v>
       </c>
@@ -4471,8 +4570,11 @@
       <c r="N39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>31</v>
       </c>
@@ -4515,8 +4617,11 @@
       <c r="N40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -4559,8 +4664,11 @@
       <c r="N41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>33</v>
       </c>
@@ -4603,8 +4711,11 @@
       <c r="N42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>34</v>
       </c>
@@ -4647,8 +4758,11 @@
       <c r="N43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -4691,8 +4805,11 @@
       <c r="N44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>36</v>
       </c>
@@ -4735,8 +4852,11 @@
       <c r="N45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>37</v>
       </c>
@@ -4779,8 +4899,11 @@
       <c r="N46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>38</v>
       </c>
@@ -4823,8 +4946,11 @@
       <c r="N47" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>39</v>
       </c>
@@ -4867,8 +4993,11 @@
       <c r="N48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>40</v>
       </c>
@@ -4911,8 +5040,11 @@
       <c r="N49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>41</v>
       </c>
@@ -4955,8 +5087,11 @@
       <c r="N50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>42</v>
       </c>
@@ -4999,8 +5134,11 @@
       <c r="N51" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>43</v>
       </c>
@@ -5043,8 +5181,11 @@
       <c r="N52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>44</v>
       </c>
@@ -5087,8 +5228,11 @@
       <c r="N53" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>45</v>
       </c>
@@ -5131,8 +5275,11 @@
       <c r="N54" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>46</v>
       </c>
@@ -5175,8 +5322,11 @@
       <c r="N55" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>47</v>
       </c>
@@ -5219,8 +5369,11 @@
       <c r="N56" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>48</v>
       </c>
@@ -5263,8 +5416,11 @@
       <c r="N57" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>49</v>
       </c>
@@ -5307,8 +5463,11 @@
       <c r="N58" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>50</v>
       </c>
@@ -5350,6 +5509,9 @@
       </c>
       <c r="N59" t="s">
         <v>41</v>
+      </c>
+      <c r="O59" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5372,10 +5534,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" activeCellId="3" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5386,7 +5548,7 @@
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -5427,10 +5589,13 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -5471,10 +5636,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -5515,10 +5683,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -5559,10 +5730,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -5603,10 +5777,13 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -5647,10 +5824,13 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -5691,10 +5871,13 @@
         <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -5735,10 +5918,13 @@
         <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -5779,10 +5965,13 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -5823,10 +6012,13 @@
         <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -5867,10 +6059,13 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -5911,10 +6106,13 @@
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -5955,10 +6153,13 @@
         <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -5999,10 +6200,13 @@
         <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -6043,10 +6247,13 @@
         <v>28</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -6087,10 +6294,13 @@
         <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -6131,10 +6341,13 @@
         <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -6175,10 +6388,13 @@
         <v>28</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -6219,10 +6435,13 @@
         <v>28</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -6263,10 +6482,13 @@
         <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -6307,10 +6529,13 @@
         <v>28</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -6351,10 +6576,13 @@
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -6395,10 +6623,13 @@
         <v>28</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -6439,10 +6670,13 @@
         <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -6483,10 +6717,13 @@
         <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -6527,10 +6764,13 @@
         <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -6571,10 +6811,13 @@
         <v>28</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -6615,10 +6858,13 @@
         <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -6659,10 +6905,13 @@
         <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -6703,10 +6952,13 @@
         <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -6747,10 +6999,13 @@
         <v>28</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -6791,10 +7046,13 @@
         <v>28</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -6835,10 +7093,13 @@
         <v>28</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -6879,10 +7140,13 @@
         <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -6923,10 +7187,13 @@
         <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -6967,10 +7234,13 @@
         <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -7011,10 +7281,13 @@
         <v>28</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -7055,10 +7328,13 @@
         <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -7099,10 +7375,13 @@
         <v>28</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -7143,10 +7422,13 @@
         <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -7187,10 +7469,13 @@
         <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -7231,10 +7516,13 @@
         <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -7275,10 +7563,13 @@
         <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -7319,10 +7610,13 @@
         <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -7363,10 +7657,13 @@
         <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -7407,10 +7704,13 @@
         <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -7451,10 +7751,13 @@
         <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -7495,10 +7798,13 @@
         <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -7539,10 +7845,13 @@
         <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -7583,7 +7892,10 @@
         <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7595,10 +7907,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7608,7 +7920,7 @@
     <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -7649,10 +7961,13 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -7693,10 +8008,13 @@
         <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -7737,10 +8055,13 @@
         <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -7781,10 +8102,13 @@
         <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -7825,10 +8149,13 @@
         <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -7869,10 +8196,13 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -7913,10 +8243,13 @@
         <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -7957,10 +8290,13 @@
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -8001,10 +8337,13 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -8045,10 +8384,13 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -8089,10 +8431,13 @@
         <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -8133,10 +8478,13 @@
         <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -8177,10 +8525,13 @@
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -8221,10 +8572,13 @@
         <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -8265,10 +8619,13 @@
         <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -8309,10 +8666,13 @@
         <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -8353,10 +8713,13 @@
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -8397,10 +8760,13 @@
         <v>29</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -8441,10 +8807,13 @@
         <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -8485,10 +8854,13 @@
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -8529,10 +8901,13 @@
         <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -8573,10 +8948,13 @@
         <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -8617,10 +8995,13 @@
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -8661,10 +9042,13 @@
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -8705,10 +9089,13 @@
         <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -8749,10 +9136,13 @@
         <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -8793,10 +9183,13 @@
         <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -8837,10 +9230,13 @@
         <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -8881,10 +9277,13 @@
         <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -8925,10 +9324,13 @@
         <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -8969,10 +9371,13 @@
         <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -9013,10 +9418,13 @@
         <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -9057,10 +9465,13 @@
         <v>29</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -9101,10 +9512,13 @@
         <v>29</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -9145,10 +9559,13 @@
         <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -9189,10 +9606,13 @@
         <v>29</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -9233,10 +9653,13 @@
         <v>29</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -9277,10 +9700,13 @@
         <v>29</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -9321,10 +9747,13 @@
         <v>29</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -9365,7 +9794,10 @@
         <v>29</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9377,10 +9809,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="P1" sqref="P1:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9394,7 +9826,7 @@
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -9440,8 +9872,11 @@
       <c r="O1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -9487,8 +9922,11 @@
       <c r="O2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -9534,8 +9972,11 @@
       <c r="O3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -9581,8 +10022,11 @@
       <c r="O4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -9628,8 +10072,11 @@
       <c r="O5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -9675,8 +10122,11 @@
       <c r="O6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -9722,8 +10172,11 @@
       <c r="O7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -9769,8 +10222,11 @@
       <c r="O8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -9816,8 +10272,11 @@
       <c r="O9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -9863,8 +10322,11 @@
       <c r="O10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -9910,8 +10372,11 @@
       <c r="O11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -9957,8 +10422,11 @@
       <c r="O12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -10004,8 +10472,11 @@
       <c r="O13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -10051,8 +10522,11 @@
       <c r="O14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -10098,8 +10572,11 @@
       <c r="O15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -10145,8 +10622,11 @@
       <c r="O16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -10192,8 +10672,11 @@
       <c r="O17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -10239,8 +10722,11 @@
       <c r="O18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -10286,8 +10772,11 @@
       <c r="O19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -10333,8 +10822,11 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -10380,8 +10872,11 @@
       <c r="O21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -10427,8 +10922,11 @@
       <c r="O22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -10474,8 +10972,11 @@
       <c r="O23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -10521,8 +11022,11 @@
       <c r="O24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -10568,8 +11072,11 @@
       <c r="O25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -10615,8 +11122,11 @@
       <c r="O26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -10662,8 +11172,11 @@
       <c r="O27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -10709,8 +11222,11 @@
       <c r="O28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -10756,8 +11272,11 @@
       <c r="O29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -10803,8 +11322,11 @@
       <c r="O30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -10850,8 +11372,11 @@
       <c r="O31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -10897,8 +11422,11 @@
       <c r="O32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -10944,8 +11472,11 @@
       <c r="O33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -10991,8 +11522,11 @@
       <c r="O34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -11038,8 +11572,11 @@
       <c r="O35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -11085,8 +11622,11 @@
       <c r="O36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -11132,8 +11672,11 @@
       <c r="O37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -11179,8 +11722,11 @@
       <c r="O38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -11226,8 +11772,11 @@
       <c r="O39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -11273,8 +11822,11 @@
       <c r="O40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -11320,8 +11872,11 @@
       <c r="O41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -11367,8 +11922,11 @@
       <c r="O42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -11414,8 +11972,11 @@
       <c r="O43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -11461,8 +12022,11 @@
       <c r="O44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -11508,8 +12072,11 @@
       <c r="O45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -11555,8 +12122,11 @@
       <c r="O46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -11602,8 +12172,11 @@
       <c r="O47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -11649,8 +12222,11 @@
       <c r="O48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -11696,8 +12272,11 @@
       <c r="O49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -11742,6 +12321,9 @@
       </c>
       <c r="O50" t="s">
         <v>46</v>
+      </c>
+      <c r="P50" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11754,10 +12336,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11767,9 +12349,10 @@
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10">
         <v>1</v>
       </c>
@@ -11797,7 +12380,7 @@
       <c r="I1" s="15">
         <v>65</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K1" s="9">
@@ -11815,8 +12398,11 @@
       <c r="O1" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>2</v>
       </c>
@@ -11844,7 +12430,7 @@
       <c r="I2" s="15">
         <v>62</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="9">
@@ -11862,8 +12448,11 @@
       <c r="O2" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -11891,7 +12480,7 @@
       <c r="I3" s="15">
         <v>88</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K3" s="9">
@@ -11909,8 +12498,11 @@
       <c r="O3" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>4</v>
       </c>
@@ -11938,7 +12530,7 @@
       <c r="I4" s="15">
         <v>80</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="9">
@@ -11956,8 +12548,11 @@
       <c r="O4" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>5</v>
       </c>
@@ -11985,7 +12580,7 @@
       <c r="I5" s="15">
         <v>73</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="9">
@@ -12003,8 +12598,11 @@
       <c r="O5" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -12032,7 +12630,7 @@
       <c r="I6" s="15">
         <v>60</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="9">
@@ -12050,8 +12648,11 @@
       <c r="O6" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>7</v>
       </c>
@@ -12079,7 +12680,7 @@
       <c r="I7" s="15">
         <v>66</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K7" s="9">
@@ -12097,8 +12698,11 @@
       <c r="O7" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>8</v>
       </c>
@@ -12126,7 +12730,7 @@
       <c r="I8" s="15">
         <v>61</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="9">
@@ -12144,8 +12748,11 @@
       <c r="O8" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>9</v>
       </c>
@@ -12173,7 +12780,7 @@
       <c r="I9" s="15">
         <v>61</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K9" s="9">
@@ -12191,8 +12798,11 @@
       <c r="O9" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -12220,7 +12830,7 @@
       <c r="I10" s="15">
         <v>35</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="9">
@@ -12238,8 +12848,11 @@
       <c r="O10" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>11</v>
       </c>
@@ -12267,7 +12880,7 @@
       <c r="I11" s="15">
         <v>72</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K11" s="9">
@@ -12285,8 +12898,11 @@
       <c r="O11" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>12</v>
       </c>
@@ -12314,7 +12930,7 @@
       <c r="I12" s="15">
         <v>4</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K12" s="9">
@@ -12332,8 +12948,11 @@
       <c r="O12" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>13</v>
       </c>
@@ -12361,7 +12980,7 @@
       <c r="I13" s="15">
         <v>67</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="9">
@@ -12379,8 +12998,11 @@
       <c r="O13" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>14</v>
       </c>
@@ -12408,7 +13030,7 @@
       <c r="I14" s="15">
         <v>35</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="9">
@@ -12426,8 +13048,11 @@
       <c r="O14" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>15</v>
       </c>
@@ -12455,7 +13080,7 @@
       <c r="I15" s="15">
         <v>94</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="9">
@@ -12473,8 +13098,11 @@
       <c r="O15" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P15" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>16</v>
       </c>
@@ -12502,7 +13130,7 @@
       <c r="I16" s="15">
         <v>60</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K16" s="9">
@@ -12520,8 +13148,11 @@
       <c r="O16" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>17</v>
       </c>
@@ -12549,7 +13180,7 @@
       <c r="I17" s="15">
         <v>79</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="9">
@@ -12567,8 +13198,11 @@
       <c r="O17" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>18</v>
       </c>
@@ -12596,7 +13230,7 @@
       <c r="I18" s="15">
         <v>77</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="9">
@@ -12614,8 +13248,11 @@
       <c r="O18" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>19</v>
       </c>
@@ -12643,7 +13280,7 @@
       <c r="I19" s="15">
         <v>75</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K19" s="9">
@@ -12661,8 +13298,11 @@
       <c r="O19" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>20</v>
       </c>
@@ -12690,7 +13330,7 @@
       <c r="I20" s="15">
         <v>72</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="9">
@@ -12708,8 +13348,11 @@
       <c r="O20" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>21</v>
       </c>
@@ -12737,7 +13380,7 @@
       <c r="I21" s="15">
         <v>60</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="9">
@@ -12755,8 +13398,11 @@
       <c r="O21" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>22</v>
       </c>
@@ -12784,7 +13430,7 @@
       <c r="I22" s="15">
         <v>72</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="9">
@@ -12802,8 +13448,11 @@
       <c r="O22" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>23</v>
       </c>
@@ -12831,7 +13480,7 @@
       <c r="I23" s="15">
         <v>4</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="9">
@@ -12849,8 +13498,11 @@
       <c r="O23" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>24</v>
       </c>
@@ -12878,7 +13530,7 @@
       <c r="I24" s="15">
         <v>4</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="9">
@@ -12896,8 +13548,11 @@
       <c r="O24" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>25</v>
       </c>
@@ -12925,7 +13580,7 @@
       <c r="I25" s="15">
         <v>49</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="9">
@@ -12943,8 +13598,11 @@
       <c r="O25" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>26</v>
       </c>
@@ -12972,7 +13630,7 @@
       <c r="I26" s="15">
         <v>60</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K26" s="9">
@@ -12990,8 +13648,11 @@
       <c r="O26" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>27</v>
       </c>
@@ -13019,7 +13680,7 @@
       <c r="I27" s="15">
         <v>82</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K27" s="9">
@@ -13037,8 +13698,11 @@
       <c r="O27" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>28</v>
       </c>
@@ -13066,7 +13730,7 @@
       <c r="I28" s="15">
         <v>83</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K28" s="9">
@@ -13084,8 +13748,11 @@
       <c r="O28" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>29</v>
       </c>
@@ -13113,7 +13780,7 @@
       <c r="I29" s="15">
         <v>51</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="9">
@@ -13131,8 +13798,11 @@
       <c r="O29" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>30</v>
       </c>
@@ -13160,7 +13830,7 @@
       <c r="I30" s="15">
         <v>53</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K30" s="9">
@@ -13178,8 +13848,11 @@
       <c r="O30" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>31</v>
       </c>
@@ -13207,7 +13880,7 @@
       <c r="I31" s="15">
         <v>72</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="9">
@@ -13225,8 +13898,11 @@
       <c r="O31" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>32</v>
       </c>
@@ -13254,7 +13930,7 @@
       <c r="I32" s="15">
         <v>64</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K32" s="9">
@@ -13272,8 +13948,11 @@
       <c r="O32" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>33</v>
       </c>
@@ -13301,7 +13980,7 @@
       <c r="I33" s="15">
         <v>62</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K33" s="9">
@@ -13319,8 +13998,11 @@
       <c r="O33" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>34</v>
       </c>
@@ -13348,7 +14030,7 @@
       <c r="I34" s="15">
         <v>80</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K34" s="9">
@@ -13366,8 +14048,11 @@
       <c r="O34" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>35</v>
       </c>
@@ -13395,7 +14080,7 @@
       <c r="I35" s="15">
         <v>71</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K35" s="9">
@@ -13413,8 +14098,11 @@
       <c r="O35" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>36</v>
       </c>
@@ -13442,7 +14130,7 @@
       <c r="I36" s="15">
         <v>60</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K36" s="9">
@@ -13460,8 +14148,11 @@
       <c r="O36" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>37</v>
       </c>
@@ -13489,7 +14180,7 @@
       <c r="I37" s="15">
         <v>54</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K37" s="9">
@@ -13507,8 +14198,11 @@
       <c r="O37" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>38</v>
       </c>
@@ -13536,7 +14230,7 @@
       <c r="I38" s="15">
         <v>62</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K38" s="9">
@@ -13554,8 +14248,11 @@
       <c r="O38" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>39</v>
       </c>
@@ -13583,7 +14280,7 @@
       <c r="I39" s="15">
         <v>60</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K39" s="9">
@@ -13601,8 +14298,11 @@
       <c r="O39" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>40</v>
       </c>
@@ -13630,7 +14330,7 @@
       <c r="I40" s="15">
         <v>35</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="21" t="s">
         <v>33</v>
       </c>
       <c r="K40" s="9">
@@ -13648,9 +14348,12 @@
       <c r="O40" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J41" s="23"/>
+      <c r="P40" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J41" s="21"/>
       <c r="K41" s="9"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -13666,10 +14369,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13686,7 +14389,7 @@
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -13729,8 +14432,11 @@
       <c r="N2" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -13773,8 +14479,11 @@
       <c r="N3" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -13817,8 +14526,11 @@
       <c r="N4" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -13861,8 +14573,11 @@
       <c r="N5" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -13905,8 +14620,11 @@
       <c r="N6" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -13949,8 +14667,11 @@
       <c r="N7" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -13993,8 +14714,11 @@
       <c r="N8" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -14037,8 +14761,11 @@
       <c r="N9" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -14081,8 +14808,11 @@
       <c r="N10" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -14125,8 +14855,11 @@
       <c r="N11" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -14169,8 +14902,11 @@
       <c r="N12" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -14213,8 +14949,11 @@
       <c r="N13" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -14257,8 +14996,11 @@
       <c r="N14" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -14301,8 +15043,11 @@
       <c r="N15" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -14345,8 +15090,11 @@
       <c r="N16" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -14389,8 +15137,11 @@
       <c r="N17" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -14433,8 +15184,11 @@
       <c r="N18" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -14477,8 +15231,11 @@
       <c r="N19" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -14521,8 +15278,11 @@
       <c r="N20" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -14565,8 +15325,11 @@
       <c r="N21" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -14609,8 +15372,11 @@
       <c r="N22" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -14653,8 +15419,11 @@
       <c r="N23" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -14697,8 +15466,11 @@
       <c r="N24" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -14741,8 +15513,11 @@
       <c r="N25" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -14785,8 +15560,11 @@
       <c r="N26" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -14829,8 +15607,11 @@
       <c r="N27" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -14873,8 +15654,11 @@
       <c r="N28" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -14916,6 +15700,9 @@
       </c>
       <c r="N29" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -14927,10 +15714,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O1" sqref="O1:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14946,7 +15733,7 @@
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -14989,8 +15776,11 @@
       <c r="N1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -15033,8 +15823,11 @@
       <c r="N2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -15077,8 +15870,11 @@
       <c r="N3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -15121,8 +15917,11 @@
       <c r="N4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -15165,8 +15964,11 @@
       <c r="N5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -15209,8 +16011,11 @@
       <c r="N6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -15253,8 +16058,11 @@
       <c r="N7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -15297,8 +16105,11 @@
       <c r="N8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -15341,8 +16152,11 @@
       <c r="N9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -15385,8 +16199,11 @@
       <c r="N10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -15429,8 +16246,11 @@
       <c r="N11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -15473,8 +16293,11 @@
       <c r="N12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -15517,8 +16340,11 @@
       <c r="N13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -15561,8 +16387,11 @@
       <c r="N14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -15605,8 +16434,11 @@
       <c r="N15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -15649,8 +16481,11 @@
       <c r="N16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -15693,8 +16528,11 @@
       <c r="N17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -15737,8 +16575,11 @@
       <c r="N18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -15781,8 +16622,11 @@
       <c r="N19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -15825,8 +16669,11 @@
       <c r="N20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -15869,8 +16716,11 @@
       <c r="N21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -15913,8 +16763,11 @@
       <c r="N22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -15957,8 +16810,11 @@
       <c r="N23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -16001,8 +16857,11 @@
       <c r="N24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -16045,8 +16904,11 @@
       <c r="N25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -16089,8 +16951,11 @@
       <c r="N26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -16133,8 +16998,11 @@
       <c r="N27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -16177,8 +17045,11 @@
       <c r="N28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -16221,8 +17092,11 @@
       <c r="N29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -16265,8 +17139,11 @@
       <c r="N30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -16309,8 +17186,11 @@
       <c r="N31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -16353,8 +17233,11 @@
       <c r="N32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -16397,8 +17280,11 @@
       <c r="N33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -16441,8 +17327,11 @@
       <c r="N34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -16485,8 +17374,11 @@
       <c r="N35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -16529,8 +17421,11 @@
       <c r="N36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -16573,8 +17468,11 @@
       <c r="N37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -16617,8 +17515,11 @@
       <c r="N38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -16661,8 +17562,11 @@
       <c r="N39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -16705,8 +17609,11 @@
       <c r="N40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -16749,8 +17656,11 @@
       <c r="N41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -16793,8 +17703,11 @@
       <c r="N42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -16837,8 +17750,11 @@
       <c r="N43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -16881,8 +17797,11 @@
       <c r="N44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -16925,8 +17844,11 @@
       <c r="N45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -16969,8 +17891,11 @@
       <c r="N46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -17013,8 +17938,11 @@
       <c r="N47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -17057,8 +17985,11 @@
       <c r="N48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -17101,8 +18032,11 @@
       <c r="N49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -17145,8 +18079,11 @@
       <c r="N50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>51</v>
       </c>
@@ -17189,8 +18126,11 @@
       <c r="N51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>52</v>
       </c>
@@ -17233,8 +18173,11 @@
       <c r="N52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>53</v>
       </c>
@@ -17277,8 +18220,11 @@
       <c r="N53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>54</v>
       </c>
@@ -17321,8 +18267,11 @@
       <c r="N54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>55</v>
       </c>
@@ -17365,8 +18314,11 @@
       <c r="N55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>56</v>
       </c>
@@ -17408,6 +18360,9 @@
       </c>
       <c r="N56" t="s">
         <v>46</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -17419,10 +18374,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17434,7 +18389,7 @@
     <col min="13" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -17477,8 +18432,11 @@
       <c r="N1" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -17521,8 +18479,11 @@
       <c r="N2" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -17565,8 +18526,11 @@
       <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -17609,8 +18573,11 @@
       <c r="N4" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -17653,8 +18620,11 @@
       <c r="N5" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -17697,8 +18667,11 @@
       <c r="N6" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -17741,8 +18714,11 @@
       <c r="N7" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -17785,8 +18761,11 @@
       <c r="N8" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -17829,8 +18808,11 @@
       <c r="N9" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -17873,8 +18855,11 @@
       <c r="N10" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -17917,8 +18902,11 @@
       <c r="N11" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -17961,8 +18949,11 @@
       <c r="N12" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -18005,8 +18996,11 @@
       <c r="N13" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -18049,8 +19043,11 @@
       <c r="N14" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -18093,8 +19090,11 @@
       <c r="N15" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -18137,8 +19137,11 @@
       <c r="N16" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -18181,8 +19184,11 @@
       <c r="N17" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -18225,8 +19231,11 @@
       <c r="N18" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -18269,8 +19278,11 @@
       <c r="N19" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -18313,8 +19325,11 @@
       <c r="N20" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -18357,8 +19372,11 @@
       <c r="N21" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -18401,8 +19419,11 @@
       <c r="N22" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -18445,8 +19466,11 @@
       <c r="N23" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -18489,8 +19513,11 @@
       <c r="N24" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -18533,8 +19560,11 @@
       <c r="N25" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -18577,8 +19607,11 @@
       <c r="N26" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -18621,8 +19654,11 @@
       <c r="N27" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -18665,8 +19701,11 @@
       <c r="N28" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -18709,8 +19748,11 @@
       <c r="N29" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -18753,8 +19795,11 @@
       <c r="N30" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -18797,8 +19842,11 @@
       <c r="N31" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -18841,8 +19889,11 @@
       <c r="N32" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -18885,8 +19936,11 @@
       <c r="N33" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -18929,8 +19983,11 @@
       <c r="N34" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -18973,8 +20030,11 @@
       <c r="N35" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -19017,8 +20077,11 @@
       <c r="N36" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -19061,8 +20124,11 @@
       <c r="N37" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -19105,8 +20171,11 @@
       <c r="N38" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -19149,8 +20218,11 @@
       <c r="N39" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -19193,8 +20265,11 @@
       <c r="N40" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -19237,8 +20312,11 @@
       <c r="N41" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -19280,6 +20358,9 @@
       </c>
       <c r="N42" s="8" t="s">
         <v>41</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -19291,10 +20372,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" activeCellId="3" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19304,10 +20385,10 @@
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -19348,10 +20429,13 @@
         <v>19</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -19392,10 +20476,13 @@
         <v>19</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -19436,10 +20523,13 @@
         <v>19</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -19480,10 +20570,13 @@
         <v>19</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -19524,10 +20617,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -19568,10 +20664,13 @@
         <v>19</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -19612,10 +20711,13 @@
         <v>19</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -19656,10 +20758,13 @@
         <v>19</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -19700,10 +20805,13 @@
         <v>19</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -19744,10 +20852,13 @@
         <v>19</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -19788,10 +20899,13 @@
         <v>19</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -19832,10 +20946,13 @@
         <v>19</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -19876,10 +20993,13 @@
         <v>19</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -19920,10 +21040,13 @@
         <v>19</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -19964,10 +21087,13 @@
         <v>19</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -20008,10 +21134,13 @@
         <v>19</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -20052,10 +21181,13 @@
         <v>19</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -20096,10 +21228,13 @@
         <v>19</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -20140,10 +21275,13 @@
         <v>19</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -20184,10 +21322,13 @@
         <v>19</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -20228,10 +21369,13 @@
         <v>19</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -20272,10 +21416,13 @@
         <v>19</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -20316,10 +21463,13 @@
         <v>19</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -20360,10 +21510,13 @@
         <v>19</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -20404,10 +21557,13 @@
         <v>19</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -20448,10 +21604,13 @@
         <v>19</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -20492,10 +21651,13 @@
         <v>19</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -20536,10 +21698,13 @@
         <v>19</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -20580,10 +21745,13 @@
         <v>19</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -20624,10 +21792,13 @@
         <v>19</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -20668,10 +21839,13 @@
         <v>19</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -20712,10 +21886,13 @@
         <v>19</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -20756,10 +21933,13 @@
         <v>19</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -20800,10 +21980,13 @@
         <v>19</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -20844,10 +22027,13 @@
         <v>19</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -20888,10 +22074,13 @@
         <v>19</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -20932,10 +22121,13 @@
         <v>19</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -20976,10 +22168,13 @@
         <v>19</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -21020,10 +22215,13 @@
         <v>19</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -21064,10 +22262,13 @@
         <v>19</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -21108,10 +22309,13 @@
         <v>19</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -21152,10 +22356,13 @@
         <v>19</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -21196,10 +22403,13 @@
         <v>19</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -21240,10 +22450,13 @@
         <v>19</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -21284,10 +22497,13 @@
         <v>19</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -21328,10 +22544,13 @@
         <v>19</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -21372,10 +22591,13 @@
         <v>19</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -21416,10 +22638,13 @@
         <v>19</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -21460,10 +22685,13 @@
         <v>19</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -21504,7 +22732,10 @@
         <v>19</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -21516,10 +22747,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" activeCellId="3" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21531,7 +22762,7 @@
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -21572,10 +22803,13 @@
         <v>19</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -21616,10 +22850,13 @@
         <v>19</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -21660,10 +22897,13 @@
         <v>19</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -21704,10 +22944,13 @@
         <v>19</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -21748,10 +22991,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -21792,10 +23038,13 @@
         <v>19</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -21836,10 +23085,13 @@
         <v>19</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -21880,10 +23132,13 @@
         <v>19</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -21924,10 +23179,13 @@
         <v>19</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -21968,10 +23226,13 @@
         <v>19</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -22012,10 +23273,13 @@
         <v>19</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -22056,10 +23320,13 @@
         <v>19</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -22100,10 +23367,13 @@
         <v>19</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -22144,10 +23414,13 @@
         <v>19</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -22188,10 +23461,13 @@
         <v>19</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -22232,10 +23508,13 @@
         <v>19</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -22276,10 +23555,13 @@
         <v>19</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -22320,10 +23602,13 @@
         <v>19</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -22364,10 +23649,13 @@
         <v>19</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -22408,10 +23696,13 @@
         <v>19</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -22452,10 +23743,13 @@
         <v>19</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -22496,10 +23790,13 @@
         <v>19</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -22540,10 +23837,13 @@
         <v>19</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -22584,10 +23884,13 @@
         <v>19</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -22628,10 +23931,13 @@
         <v>19</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -22672,10 +23978,13 @@
         <v>19</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -22716,10 +24025,13 @@
         <v>19</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -22760,10 +24072,13 @@
         <v>19</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -22804,10 +24119,13 @@
         <v>19</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -22848,10 +24166,13 @@
         <v>19</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -22892,7 +24213,10 @@
         <v>19</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -22904,10 +24228,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" activeCellId="3" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22917,7 +24241,7 @@
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16">
         <v>1</v>
       </c>
@@ -22958,10 +24282,13 @@
         <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -23002,10 +24329,13 @@
         <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -23046,10 +24376,13 @@
         <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -23090,10 +24423,13 @@
         <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -23134,10 +24470,13 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -23178,10 +24517,13 @@
         <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -23222,10 +24564,13 @@
         <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -23266,10 +24611,13 @@
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -23310,10 +24658,13 @@
         <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -23354,10 +24705,13 @@
         <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -23398,10 +24752,13 @@
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -23442,10 +24799,13 @@
         <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -23486,10 +24846,13 @@
         <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -23530,10 +24893,13 @@
         <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -23574,10 +24940,13 @@
         <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -23618,10 +24987,13 @@
         <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -23662,10 +25034,13 @@
         <v>27</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -23706,10 +25081,13 @@
         <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -23750,10 +25128,13 @@
         <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -23794,10 +25175,13 @@
         <v>27</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -23838,10 +25222,13 @@
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -23882,10 +25269,13 @@
         <v>27</v>
       </c>
       <c r="N22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -23926,10 +25316,13 @@
         <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -23970,10 +25363,13 @@
         <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -24014,10 +25410,13 @@
         <v>27</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -24058,10 +25457,13 @@
         <v>27</v>
       </c>
       <c r="N26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -24102,10 +25504,13 @@
         <v>27</v>
       </c>
       <c r="N27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -24146,10 +25551,13 @@
         <v>27</v>
       </c>
       <c r="N28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -24190,10 +25598,13 @@
         <v>27</v>
       </c>
       <c r="N29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -24234,10 +25645,13 @@
         <v>27</v>
       </c>
       <c r="N30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -24278,10 +25692,13 @@
         <v>27</v>
       </c>
       <c r="N31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -24322,10 +25739,13 @@
         <v>27</v>
       </c>
       <c r="N32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -24366,10 +25786,13 @@
         <v>27</v>
       </c>
       <c r="N33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -24410,10 +25833,13 @@
         <v>27</v>
       </c>
       <c r="N34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -24454,10 +25880,13 @@
         <v>27</v>
       </c>
       <c r="N35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -24498,10 +25927,13 @@
         <v>27</v>
       </c>
       <c r="N36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -24542,10 +25974,13 @@
         <v>27</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -24586,10 +26021,13 @@
         <v>27</v>
       </c>
       <c r="N38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -24630,10 +26068,13 @@
         <v>27</v>
       </c>
       <c r="N39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -24674,7 +26115,10 @@
         <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
